--- a/data/discord/outputdiscordTOS.xlsx
+++ b/data/discord/outputdiscordTOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\nlp-practice\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\nlp-practice\data\discord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7B4520-73A0-49F0-803E-28619556235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EB383A-9623-41B1-9860-0A92A6F78550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1183,13 +1183,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="54.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="65" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
